--- a/music_app_table.csv.xlsx
+++ b/music_app_table.csv.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\names\OneDrive\$Git_gitea_github\sls_\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\$Git_gitea_github\sls_\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCCD4BA-3AD8-4B80-B444-D18182167C7D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="256" documentId="13_ncr:1_{5BCCD4BA-3AD8-4B80-B444-D18182167C7D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{E897C5D8-FD93-4873-B331-1F60FC26B023}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EE568BB3-1B64-4639-9B0F-0BD6D1CD9903}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{EE568BB3-1B64-4639-9B0F-0BD6D1CD9903}"/>
   </bookViews>
   <sheets>
     <sheet name="music_app_table" sheetId="1" r:id="rId1"/>
-    <sheet name="Phones" sheetId="2" r:id="rId2"/>
-    <sheet name="AppsBackup" sheetId="3" r:id="rId3"/>
+    <sheet name="music_app_intent_dump" sheetId="4" r:id="rId2"/>
+    <sheet name="Phones" sheetId="2" r:id="rId3"/>
+    <sheet name="AppsBackup" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">music_app_table!$A$21:$K$21</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="380">
   <si>
     <t>DATE</t>
   </si>
@@ -1020,6 +1021,162 @@
   </si>
   <si>
     <t>no+E29</t>
+  </si>
+  <si>
+    <t>com.adam.aslfms E/SLSPlayStatusReceiver</t>
+  </si>
+  <si>
+    <t>[playstate=true]</t>
+  </si>
+  <si>
+    <t>[playing=true]</t>
+  </si>
+  <si>
+    <t>Dumping Intent start</t>
+  </si>
+  <si>
+    <t>Dumping Intent end</t>
+  </si>
+  <si>
+    <t>Action received was: com.spotify.music.playbackstatechanged</t>
+  </si>
+  <si>
+    <t>[scrobbling_source=com.kabouzeid.gramophone]</t>
+  </si>
+  <si>
+    <t>[artist=Flor]</t>
+  </si>
+  <si>
+    <t>[id=62]</t>
+  </si>
+  <si>
+    <t>[album=Music]</t>
+  </si>
+  <si>
+    <t>[track=Unsaid]</t>
+  </si>
+  <si>
+    <t>[timeSent=1564814492084]</t>
+  </si>
+  <si>
+    <t>[duration=191068]</t>
+  </si>
+  <si>
+    <t>[artist=flor]</t>
+  </si>
+  <si>
+    <t>[length=191068]</t>
+  </si>
+  <si>
+    <t>[albumId=spotify:album:3GIL4DPTpx8qXKmCVavrjD]</t>
+  </si>
+  <si>
+    <t>[playbackPosition=61]</t>
+  </si>
+  <si>
+    <t>[id=spotify:track:4wQD9I6NQvgs4Dp1yw6i7a]</t>
+  </si>
+  <si>
+    <t>[track=unsaid]</t>
+  </si>
+  <si>
+    <t>[position=61]</t>
+  </si>
+  <si>
+    <t>[album=come out. you're hiding (deluxe)]</t>
+  </si>
+  <si>
+    <t>[com.amazon.mp3.id=29]</t>
+  </si>
+  <si>
+    <t>[track_count_int_key=1]</t>
+  </si>
+  <si>
+    <t>[shuffle_enabled_key=false]</t>
+  </si>
+  <si>
+    <t>[content_uri_key=content://com.amazon.mp3.Media/library/cirrus/tracks/29]</t>
+  </si>
+  <si>
+    <t>[track_position_int_key=0]</t>
+  </si>
+  <si>
+    <t>[com.amazon.mp3.previous_playstate=2]</t>
+  </si>
+  <si>
+    <t>[repeat_state_key=0]</t>
+  </si>
+  <si>
+    <t>[com.amazon.mp3.playstate=3]</t>
+  </si>
+  <si>
+    <t>Action received was: com.amazon.mp3.playstatechanged</t>
+  </si>
+  <si>
+    <t>JetAudio</t>
+  </si>
+  <si>
+    <t>[duration=191]</t>
+  </si>
+  <si>
+    <t>[state=0]</t>
+  </si>
+  <si>
+    <t>[app-package=com.jetappfactory.jetaudio]</t>
+  </si>
+  <si>
+    <t>[app-name=jetAudio Music Player]</t>
+  </si>
+  <si>
+    <t>Google Play Music</t>
+  </si>
+  <si>
+    <t>[duration=191000]</t>
+  </si>
+  <si>
+    <t>[playerState=3]</t>
+  </si>
+  <si>
+    <t>[position=23450]</t>
+  </si>
+  <si>
+    <t>[position=463]</t>
+  </si>
+  <si>
+    <t>[duration=191160]</t>
+  </si>
+  <si>
+    <t>Cloud Player</t>
+  </si>
+  <si>
+    <t>[currentContainerType=TrackList]</t>
+  </si>
+  <si>
+    <t>[albumId=55778172]</t>
+  </si>
+  <si>
+    <t>[preparing=false]</t>
+  </si>
+  <si>
+    <t>[currentContainerId=454241962]</t>
+  </si>
+  <si>
+    <t>[id=0.454241962]</t>
+  </si>
+  <si>
+    <t>[app=deezer.android.app]</t>
+  </si>
+  <si>
+    <t>[isSoundAd=false]</t>
+  </si>
+  <si>
+    <t>8Tracks</t>
+  </si>
+  <si>
+    <t>[scrobbling_source=com.e8tracks]</t>
+  </si>
+  <si>
+    <t>[position=71]</t>
   </si>
 </sst>
 </file>
@@ -1387,8 +1544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D624701D-6C10-4902-9AB9-D688402684BD}">
   <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1633,7 +1790,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
-        <f>_xlfn.CONCAT("[",J22,"](",$D$1,I22,")")</f>
+        <f t="shared" ref="A22:A53" si="0">_xlfn.CONCAT("[",J22,"](",$D$1,I22,")")</f>
         <v>[8tracks](https://play.google.com/store/apps/details?id=com.e8tracks)</v>
       </c>
       <c r="B22" t="s">
@@ -1649,7 +1806,7 @@
         <v>218</v>
       </c>
       <c r="H22" t="str">
-        <f>_xlfn.CONCAT("[Site](",K22,")")</f>
+        <f t="shared" ref="H22:H53" si="1">_xlfn.CONCAT("[Site](",K22,")")</f>
         <v>[Site](https://8tracks.com/)</v>
       </c>
       <c r="I22" t="s">
@@ -1664,7 +1821,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
-        <f>_xlfn.CONCAT("[",J23,"](",$D$1,I23,")")</f>
+        <f t="shared" si="0"/>
         <v>[AIMP](https://play.google.com/store/apps/details?id=com.aimp.player)</v>
       </c>
       <c r="B23" t="s">
@@ -1680,7 +1837,7 @@
         <v>218</v>
       </c>
       <c r="H23" t="str">
-        <f>_xlfn.CONCAT("[Site](",K23,")")</f>
+        <f t="shared" si="1"/>
         <v>[Site](http://aimp.ru/)</v>
       </c>
       <c r="I23" t="s">
@@ -1695,7 +1852,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
-        <f>_xlfn.CONCAT("[",J24,"](",$D$1,I24,")")</f>
+        <f t="shared" si="0"/>
         <v>[Amazon Music](https://play.google.com/store/apps/details?id=com.amazon.mp3)</v>
       </c>
       <c r="B24" t="s">
@@ -1711,7 +1868,7 @@
         <v>218</v>
       </c>
       <c r="H24" t="str">
-        <f>_xlfn.CONCAT("[Site](",K24,")")</f>
+        <f t="shared" si="1"/>
         <v>[Site](http://www.amazon.com/gp/feature.html?ie=UTF8&amp;docId=1000454841)</v>
       </c>
       <c r="I24" t="s">
@@ -1726,7 +1883,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
-        <f>_xlfn.CONCAT("[",J25,"](",$D$1,I25,")")</f>
+        <f t="shared" si="0"/>
         <v>[Apollo](https://play.google.com/store/apps/details?id=com.andrew.apollo)</v>
       </c>
       <c r="B25" t="s">
@@ -1742,7 +1899,7 @@
         <v>218</v>
       </c>
       <c r="H25" t="str">
-        <f>_xlfn.CONCAT("[Site](",K25,")")</f>
+        <f t="shared" si="1"/>
         <v>[Site](https://forum.xda-developers.com/showthread.php?t=2625426)</v>
       </c>
       <c r="I25" s="4" t="s">
@@ -1757,7 +1914,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
-        <f>_xlfn.CONCAT("[",J26,"](",$D$1,I26,")")</f>
+        <f t="shared" si="0"/>
         <v>[Archos](https://play.google.com/store/apps/details?id=https://play.google.com/store/apps/details?id=com.archos.mediacenter.music)</v>
       </c>
       <c r="B26" t="s">
@@ -1773,7 +1930,7 @@
         <v>218</v>
       </c>
       <c r="H26" t="str">
-        <f>_xlfn.CONCAT("[Site](",K26,")")</f>
+        <f t="shared" si="1"/>
         <v>[Site](http://www.archos.com/products/imt/archos_5it/index.html)</v>
       </c>
       <c r="I26" s="4" t="s">
@@ -1788,7 +1945,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
-        <f>_xlfn.CONCAT("[",J27,"](",$D$1,I27,")")</f>
+        <f t="shared" si="0"/>
         <v>[BlackPlayer](https://play.google.com/store/apps/details?id=com.kodarkooperativet.blackplayerfree)</v>
       </c>
       <c r="B27" t="s">
@@ -1804,7 +1961,7 @@
         <v>218</v>
       </c>
       <c r="H27" t="str">
-        <f>_xlfn.CONCAT("[Site](",K27,")")</f>
+        <f t="shared" si="1"/>
         <v>[Site](https://www.reddit.com/r/blackplayer/)</v>
       </c>
       <c r="I27" t="s">
@@ -1819,7 +1976,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
-        <f>_xlfn.CONCAT("[",J28,"](",$D$1,I28,")")</f>
+        <f t="shared" si="0"/>
         <v>[BuMP](https://play.google.com/store/apps/details?id=com.n7mobile.micromusic)</v>
       </c>
       <c r="B28" t="s">
@@ -1838,7 +1995,7 @@
         <v>30</v>
       </c>
       <c r="H28" t="str">
-        <f>_xlfn.CONCAT("[Site](",K28,")")</f>
+        <f t="shared" si="1"/>
         <v>[Site](https://n7mobile.com/en)</v>
       </c>
       <c r="I28" t="s">
@@ -1853,7 +2010,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
-        <f>_xlfn.CONCAT("[",J29,"](",$D$1,I29,")")</f>
+        <f t="shared" si="0"/>
         <v>[Clean Music](https://play.google.com/store/apps/details?id=com.myskyspark.music)</v>
       </c>
       <c r="B29" t="s">
@@ -1869,7 +2026,7 @@
         <v>218</v>
       </c>
       <c r="H29" t="str">
-        <f>_xlfn.CONCAT("[Site](",K29,")")</f>
+        <f t="shared" si="1"/>
         <v>[Site](http://www.notriddle.com/)</v>
       </c>
       <c r="I29" t="s">
@@ -1884,7 +2041,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
-        <f>_xlfn.CONCAT("[",J30,"](",$D$1,I30,")")</f>
+        <f t="shared" si="0"/>
         <v>[DAAP](https://play.google.com/store/apps/details?id=org.mult.daap)</v>
       </c>
       <c r="B30" t="s">
@@ -1900,7 +2057,7 @@
         <v>218</v>
       </c>
       <c r="H30" t="str">
-        <f>_xlfn.CONCAT("[Site](",K30,")")</f>
+        <f t="shared" si="1"/>
         <v>[Site](http://code.google.com/p/daap-client/ )</v>
       </c>
       <c r="I30" t="s">
@@ -1915,7 +2072,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
-        <f>_xlfn.CONCAT("[",J31,"](",$D$1,I31,")")</f>
+        <f t="shared" si="0"/>
         <v>[DeaDBeeF](https://play.google.com/store/apps/details?id=org.deadbeef.android)</v>
       </c>
       <c r="B31" t="s">
@@ -1931,7 +2088,7 @@
         <v>218</v>
       </c>
       <c r="H31" t="str">
-        <f>_xlfn.CONCAT("[Site](",K31,")")</f>
+        <f t="shared" si="1"/>
         <v>[Site](http://deadbeef.sourceforge.net/)</v>
       </c>
       <c r="I31" t="s">
@@ -1946,7 +2103,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
-        <f>_xlfn.CONCAT("[",J32,"](",$D$1,I32,")")</f>
+        <f t="shared" si="0"/>
         <v>[Deezer](https://play.google.com/store/apps/details?id=deezer.android.app)</v>
       </c>
       <c r="B32" t="s">
@@ -1962,7 +2119,7 @@
         <v>218</v>
       </c>
       <c r="H32" t="str">
-        <f>_xlfn.CONCAT("[Site](",K32,")")</f>
+        <f t="shared" si="1"/>
         <v>[Site](https://www.deezer.com/us/)</v>
       </c>
       <c r="I32" t="s">
@@ -1977,7 +2134,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
-        <f>_xlfn.CONCAT("[",J33,"](",$D$1,I33,")")</f>
+        <f t="shared" si="0"/>
         <v>[doubleTwist](https://play.google.com/store/apps/details?id=com.doubleTwist.androidPlayer)</v>
       </c>
       <c r="B33" t="s">
@@ -1996,7 +2153,7 @@
         <v>119</v>
       </c>
       <c r="H33" t="str">
-        <f>_xlfn.CONCAT("[Site](",K33,")")</f>
+        <f t="shared" si="1"/>
         <v>[Site](https://www.doubletwist.com)</v>
       </c>
       <c r="I33" t="s">
@@ -2011,7 +2168,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
-        <f>_xlfn.CONCAT("[",J34,"](",$D$1,I34,")")</f>
+        <f t="shared" si="0"/>
         <v>[Dsub](https://play.google.com/store/apps/details?id=github.daneren2005.dsub)</v>
       </c>
       <c r="B34" t="s">
@@ -2027,7 +2184,7 @@
         <v>218</v>
       </c>
       <c r="H34" t="str">
-        <f>_xlfn.CONCAT("[Site](",K34,")")</f>
+        <f t="shared" si="1"/>
         <v>[Site](http://forum.subsonic.org/forum/viewforum.php?f=16)</v>
       </c>
       <c r="I34" t="s">
@@ -2042,7 +2199,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
-        <f>_xlfn.CONCAT("[",J35,"](",$D$1,I35,")")</f>
+        <f t="shared" si="0"/>
         <v>[Folder Player](https://play.google.com/store/apps/details?id=com.folderplayer)</v>
       </c>
       <c r="B35" t="s">
@@ -2058,7 +2215,7 @@
         <v>218</v>
       </c>
       <c r="H35" t="str">
-        <f>_xlfn.CONCAT("[Site](",K35,")")</f>
+        <f t="shared" si="1"/>
         <v>[Site](http://folderplayer.com/)</v>
       </c>
       <c r="I35" t="s">
@@ -2073,7 +2230,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
-        <f>_xlfn.CONCAT("[",J36,"](",$D$1,I36,")")</f>
+        <f t="shared" si="0"/>
         <v>[foobar2000](https://play.google.com/store/apps/details?id=com.foobar2000.foobar2000)</v>
       </c>
       <c r="B36" t="s">
@@ -2089,7 +2246,7 @@
         <v>218</v>
       </c>
       <c r="H36" t="str">
-        <f>_xlfn.CONCAT("[Site](",K36,")")</f>
+        <f t="shared" si="1"/>
         <v>[Site](https://www.foobar2000.org)</v>
       </c>
       <c r="I36" t="s">
@@ -2104,7 +2261,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
-        <f>_xlfn.CONCAT("[",J37,"](",$D$1,I37,")")</f>
+        <f t="shared" si="0"/>
         <v>[GoneMAD Music Player](https://play.google.com/store/apps/details?id=gonemad.gmmp)</v>
       </c>
       <c r="B37" t="s">
@@ -2120,7 +2277,7 @@
         <v>218</v>
       </c>
       <c r="H37" t="str">
-        <f>_xlfn.CONCAT("[Site](",K37,")")</f>
+        <f t="shared" si="1"/>
         <v>[Site](http://gonemadmusicplayer.blogspot.com/)</v>
       </c>
       <c r="I37" t="s">
@@ -2135,7 +2292,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
-        <f>_xlfn.CONCAT("[",J38,"](",$D$1,I38,")")</f>
+        <f t="shared" si="0"/>
         <v>[Huawei Music](https://play.google.com/store/apps/details?id=com.android.mediacenter)</v>
       </c>
       <c r="B38" t="s">
@@ -2151,7 +2308,7 @@
         <v>218</v>
       </c>
       <c r="H38" t="str">
-        <f>_xlfn.CONCAT("[Site](",K38,")")</f>
+        <f t="shared" si="1"/>
         <v>[Site](http://music.huaweimobilecloudservice.com/en/)</v>
       </c>
       <c r="I38" t="s">
@@ -2166,7 +2323,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
-        <f>_xlfn.CONCAT("[",J39,"](",$D$1,I39,")")</f>
+        <f t="shared" si="0"/>
         <v>[InfiniTracks](https://play.google.com/store/apps/details?id=com.smithyproductions.infinitracks)</v>
       </c>
       <c r="B39" t="s">
@@ -2182,7 +2339,7 @@
         <v>218</v>
       </c>
       <c r="H39" t="str">
-        <f>_xlfn.CONCAT("[Site](",K39,")")</f>
+        <f t="shared" si="1"/>
         <v>[Site](http://smithyproductions.co.uk)</v>
       </c>
       <c r="I39" t="s">
@@ -2197,7 +2354,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
-        <f>_xlfn.CONCAT("[",J40,"](",$D$1,I40,")")</f>
+        <f t="shared" si="0"/>
         <v>[jetAudio](https://play.google.com/store/apps/details?id=com.jetappfactory.jetaudio)</v>
       </c>
       <c r="B40" t="s">
@@ -2213,7 +2370,7 @@
         <v>218</v>
       </c>
       <c r="H40" t="str">
-        <f>_xlfn.CONCAT("[Site](",K40,")")</f>
+        <f t="shared" si="1"/>
         <v>[Site](https://www.facebook.com/jetappfactory)</v>
       </c>
       <c r="I40" t="s">
@@ -2228,7 +2385,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
-        <f>_xlfn.CONCAT("[",J41,"](",$D$1,I41,")")</f>
+        <f t="shared" si="0"/>
         <v>[JoeApollo](https://play.google.com/store/apps/details?id=the.joeapollo)</v>
       </c>
       <c r="B41" t="s">
@@ -2244,7 +2401,7 @@
         <v>218</v>
       </c>
       <c r="H41" t="str">
-        <f>_xlfn.CONCAT("[Site](",K41,")")</f>
+        <f t="shared" si="1"/>
         <v>[Site](http://www.josephpcohen.com/)</v>
       </c>
       <c r="I41" s="4" t="s">
@@ -2259,7 +2416,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
-        <f>_xlfn.CONCAT("[",J42,"](",$D$1,I42,")")</f>
+        <f t="shared" si="0"/>
         <v>[Kodi Remote](https://play.google.com/store/apps/details?id=ch.berard.xbmcremotebeta)</v>
       </c>
       <c r="B42" t="s">
@@ -2275,7 +2432,7 @@
         <v>218</v>
       </c>
       <c r="H42" t="str">
-        <f>_xlfn.CONCAT("[Site](",K42,")")</f>
+        <f t="shared" si="1"/>
         <v>[Site](#)</v>
       </c>
       <c r="I42" t="s">
@@ -2290,7 +2447,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
-        <f>_xlfn.CONCAT("[",J43,"](",$D$1,I43,")")</f>
+        <f t="shared" si="0"/>
         <v>[MediaMonkey](https://play.google.com/store/apps/details?id=com.ventismedia.android.mediamonkey)</v>
       </c>
       <c r="B43" t="s">
@@ -2306,7 +2463,7 @@
         <v>218</v>
       </c>
       <c r="H43" t="str">
-        <f>_xlfn.CONCAT("[Site](",K43,")")</f>
+        <f t="shared" si="1"/>
         <v>[Site](https://www.mediamonkey.com)</v>
       </c>
       <c r="I43" t="s">
@@ -2321,7 +2478,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
-        <f>_xlfn.CONCAT("[",J44,"](",$D$1,I44,")")</f>
+        <f t="shared" si="0"/>
         <v>[Meridian Player](https://play.google.com/store/apps/details?id=org.iii.romulus.meridian)</v>
       </c>
       <c r="B44" t="s">
@@ -2337,7 +2494,7 @@
         <v>218</v>
       </c>
       <c r="H44" t="str">
-        <f>_xlfn.CONCAT("[Site](",K44,")")</f>
+        <f t="shared" si="1"/>
         <v>[Site](http://sites.google.com/site/eternalsandbox/Home/meridian-video-player)</v>
       </c>
       <c r="I44" t="s">
@@ -2352,7 +2509,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
-        <f>_xlfn.CONCAT("[",J45,"](",$D$1,I45,")")</f>
+        <f t="shared" si="0"/>
         <v>[MixZing](https://play.google.com/store/apps/details?id=com.mixzing.basic)</v>
       </c>
       <c r="B45" t="s">
@@ -2368,7 +2525,7 @@
         <v>218</v>
       </c>
       <c r="H45" t="str">
-        <f>_xlfn.CONCAT("[Site](",K45,")")</f>
+        <f t="shared" si="1"/>
         <v>[Site](http://mixzing.com/android.html )</v>
       </c>
       <c r="I45" t="s">
@@ -2383,7 +2540,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
-        <f>_xlfn.CONCAT("[",J46,"](",$D$1,I46,")")</f>
+        <f t="shared" si="0"/>
         <v>[MortPlayer Music](https://play.google.com/store/apps/details?id=de.stohelit.folderplayer)</v>
       </c>
       <c r="B46" t="s">
@@ -2399,7 +2556,7 @@
         <v>218</v>
       </c>
       <c r="H46" t="str">
-        <f>_xlfn.CONCAT("[Site](",K46,")")</f>
+        <f t="shared" si="1"/>
         <v>[Site](http://www.sto-helit.de/)</v>
       </c>
       <c r="I46" t="s">
@@ -2414,7 +2571,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
-        <f>_xlfn.CONCAT("[",J47,"](",$D$1,I47,")")</f>
+        <f t="shared" si="0"/>
         <v>[Mosaic player](https://play.google.com/store/apps/details?id=com.TFiveR.mosaicplayer)</v>
       </c>
       <c r="B47" t="s">
@@ -2430,7 +2587,7 @@
         <v>218</v>
       </c>
       <c r="H47" t="str">
-        <f>_xlfn.CONCAT("[Site](",K47,")")</f>
+        <f t="shared" si="1"/>
         <v>[Site](https://sites.google.com/site/zorillasoft/)</v>
       </c>
       <c r="I47" t="s">
@@ -2445,7 +2602,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
-        <f>_xlfn.CONCAT("[",J48,"](",$D$1,I48,")")</f>
+        <f t="shared" si="0"/>
         <v>[Mp3 Music Player](https://play.google.com/store/apps/details?id=us.music.marine)</v>
       </c>
       <c r="B48" t="s">
@@ -2461,7 +2618,7 @@
         <v>218</v>
       </c>
       <c r="H48" t="str">
-        <f>_xlfn.CONCAT("[Site](",K48,")")</f>
+        <f t="shared" si="1"/>
         <v>[Site](#)</v>
       </c>
       <c r="I48" t="s">
@@ -2476,7 +2633,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
-        <f>_xlfn.CONCAT("[",J49,"](",$D$1,I49,")")</f>
+        <f t="shared" si="0"/>
         <v>[Music Canoe](https://play.google.com/store/apps/details?id=com.lasthopesoftware.bluewater)</v>
       </c>
       <c r="B49" t="s">
@@ -2492,7 +2649,7 @@
         <v>218</v>
       </c>
       <c r="H49" t="str">
-        <f>_xlfn.CONCAT("[Site](",K49,")")</f>
+        <f t="shared" si="1"/>
         <v>[Site](#)</v>
       </c>
       <c r="I49" t="s">
@@ -2507,7 +2664,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
-        <f>_xlfn.CONCAT("[",J50,"](",$D$1,I50,")")</f>
+        <f t="shared" si="0"/>
         <v>[Music Folder Player Free](https://play.google.com/store/apps/details?id=de.zorillasoft.musicfolderplayer)</v>
       </c>
       <c r="B50" t="s">
@@ -2523,7 +2680,7 @@
         <v>218</v>
       </c>
       <c r="H50" t="str">
-        <f>_xlfn.CONCAT("[Site](",K50,")")</f>
+        <f t="shared" si="1"/>
         <v>[Site](http://mycloudplayers.com/)</v>
       </c>
       <c r="I50" t="s">
@@ -2538,7 +2695,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
-        <f>_xlfn.CONCAT("[",J51,"](",$D$1,I51,")")</f>
+        <f t="shared" si="0"/>
         <v>[Music Player by JRTStudio](https://play.google.com/store/apps/details?id=com.jrtstudio.music)</v>
       </c>
       <c r="B51" t="s">
@@ -2554,7 +2711,7 @@
         <v>218</v>
       </c>
       <c r="H51" t="str">
-        <f>_xlfn.CONCAT("[Site](",K51,")")</f>
+        <f t="shared" si="1"/>
         <v>[Site](http://www.jrtstudio.com/)</v>
       </c>
       <c r="I51" t="s">
@@ -2569,7 +2726,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
-        <f>_xlfn.CONCAT("[",J52,"](",$D$1,I52,")")</f>
+        <f t="shared" si="0"/>
         <v>[Musixmatch](https://play.google.com/store/apps/details?id=com.musixmatch.android.lyrify)</v>
       </c>
       <c r="B52" t="s">
@@ -2585,7 +2742,7 @@
         <v>218</v>
       </c>
       <c r="H52" t="str">
-        <f>_xlfn.CONCAT("[Site](",K52,")")</f>
+        <f t="shared" si="1"/>
         <v>[Site](#)</v>
       </c>
       <c r="I52" t="s">
@@ -2600,7 +2757,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
-        <f>_xlfn.CONCAT("[",J53,"](",$D$1,I53,")")</f>
+        <f t="shared" si="0"/>
         <v>[My Cloud Player](https://play.google.com/store/apps/details?id=com.mycloudplayers.mycloudplayer)</v>
       </c>
       <c r="B53" t="s">
@@ -2616,7 +2773,7 @@
         <v>218</v>
       </c>
       <c r="H53" t="str">
-        <f>_xlfn.CONCAT("[Site](",K53,")")</f>
+        <f t="shared" si="1"/>
         <v>[Site](http://n7player.com/)</v>
       </c>
       <c r="I53" t="s">
@@ -2631,7 +2788,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
-        <f>_xlfn.CONCAT("[",J54,"](",$D$1,I54,")")</f>
+        <f t="shared" ref="A54:A81" si="2">_xlfn.CONCAT("[",J54,"](",$D$1,I54,")")</f>
         <v>[n7player](https://play.google.com/store/apps/details?id=com.n7mobile.nplayer)</v>
       </c>
       <c r="B54" t="s">
@@ -2647,7 +2804,7 @@
         <v>218</v>
       </c>
       <c r="H54" t="str">
-        <f>_xlfn.CONCAT("[Site](",K54,")")</f>
+        <f t="shared" ref="H54:H81" si="3">_xlfn.CONCAT("[Site](",K54,")")</f>
         <v>[Site](#)</v>
       </c>
       <c r="I54" t="s">
@@ -2662,7 +2819,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
-        <f>_xlfn.CONCAT("[",J55,"](",$D$1,I55,")")</f>
+        <f t="shared" si="2"/>
         <v>[Napster](https://play.google.com/store/apps/details?id=com.rhapsody)</v>
       </c>
       <c r="B55" t="s">
@@ -2678,7 +2835,7 @@
         <v>218</v>
       </c>
       <c r="H55" t="str">
-        <f>_xlfn.CONCAT("[Site](",K55,")")</f>
+        <f t="shared" si="3"/>
         <v>[Site](#)</v>
       </c>
       <c r="I55" t="s">
@@ -2693,7 +2850,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
-        <f>_xlfn.CONCAT("[",J56,"](",$D$1,I56,")")</f>
+        <f t="shared" si="2"/>
         <v>[Neutron (Eval)](https://play.google.com/store/apps/details?id=com.neutroncode.mpeval)</v>
       </c>
       <c r="B56" t="s">
@@ -2709,7 +2866,7 @@
         <v>218</v>
       </c>
       <c r="H56" t="str">
-        <f>_xlfn.CONCAT("[Site](",K56,")")</f>
+        <f t="shared" si="3"/>
         <v>[Site](http://neutronmp.com/)</v>
       </c>
       <c r="I56" t="s">
@@ -2724,7 +2881,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
-        <f>_xlfn.CONCAT("[",J57,"](",$D$1,I57,")")</f>
+        <f t="shared" si="2"/>
         <v>[Noise FM](https://play.google.com/store/apps/details?id=ru.modi.dubsteponline)</v>
       </c>
       <c r="B57" t="s">
@@ -2740,7 +2897,7 @@
         <v>218</v>
       </c>
       <c r="H57" t="str">
-        <f>_xlfn.CONCAT("[Site](",K57,")")</f>
+        <f t="shared" si="3"/>
         <v>[Site](http://noisefm.ru)</v>
       </c>
       <c r="I57" t="s">
@@ -2755,7 +2912,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
-        <f>_xlfn.CONCAT("[",J58,"](",$D$1,I58,")")</f>
+        <f t="shared" si="2"/>
         <v>[Phonograph](https://play.google.com/store/apps/details?id=com.kabouzeid.gramophone)</v>
       </c>
       <c r="B58" t="s">
@@ -2771,7 +2928,7 @@
         <v>218</v>
       </c>
       <c r="H58" t="str">
-        <f>_xlfn.CONCAT("[Site](",K58,")")</f>
+        <f t="shared" si="3"/>
         <v>[Site](#)</v>
       </c>
       <c r="I58" t="s">
@@ -2786,7 +2943,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
-        <f>_xlfn.CONCAT("[",J59,"](",$D$1,I59,")")</f>
+        <f t="shared" si="2"/>
         <v>[Play Music](https://play.google.com/store/apps/details?id=com.google.android.music)</v>
       </c>
       <c r="B59" t="s">
@@ -2802,7 +2959,7 @@
         <v>218</v>
       </c>
       <c r="H59" t="str">
-        <f>_xlfn.CONCAT("[Site](",K59,")")</f>
+        <f t="shared" si="3"/>
         <v>[Site](http://music.google.com/music/)</v>
       </c>
       <c r="I59" t="s">
@@ -2817,7 +2974,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="str">
-        <f>_xlfn.CONCAT("[",J60,"](",$D$1,I60,")")</f>
+        <f t="shared" si="2"/>
         <v>[PlayerPro](https://play.google.com/store/apps/details?id=com.tbig.playerprotrial)</v>
       </c>
       <c r="B60" t="s">
@@ -2833,7 +2990,7 @@
         <v>218</v>
       </c>
       <c r="H60" t="str">
-        <f>_xlfn.CONCAT("[Site](",K60,")")</f>
+        <f t="shared" si="3"/>
         <v>[Site](http://www.aplayerpro.com/)</v>
       </c>
       <c r="I60" t="s">
@@ -2848,7 +3005,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="str">
-        <f>_xlfn.CONCAT("[",J61,"](",$D$1,I61,")")</f>
+        <f t="shared" si="2"/>
         <v>[Poweramp](https://play.google.com/store/apps/details?id=com.maxmpz.audioplayer)</v>
       </c>
       <c r="B61" t="s">
@@ -2867,7 +3024,7 @@
         <v>119</v>
       </c>
       <c r="H61" t="str">
-        <f>_xlfn.CONCAT("[Site](",K61,")")</f>
+        <f t="shared" si="3"/>
         <v>[Site](http://powerampapp.com/)</v>
       </c>
       <c r="I61" t="s">
@@ -2882,7 +3039,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="str">
-        <f>_xlfn.CONCAT("[",J62,"](",$D$1,I62,")")</f>
+        <f t="shared" si="2"/>
         <v>[Pulsar](https://play.google.com/store/apps/details?id=com.rhmsoft.pulsar)</v>
       </c>
       <c r="B62" t="s">
@@ -2898,7 +3055,7 @@
         <v>218</v>
       </c>
       <c r="H62" t="str">
-        <f>_xlfn.CONCAT("[Site](",K62,")")</f>
+        <f t="shared" si="3"/>
         <v>[Site](http://rhmsoft.com/?p=318)</v>
       </c>
       <c r="I62" t="s">
@@ -2913,7 +3070,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="str">
-        <f>_xlfn.CONCAT("[",J63,"](",$D$1,I63,")")</f>
+        <f t="shared" si="2"/>
         <v>[Rdio](https://play.google.com/store/apps/details?id=com.rdio.android.ui)</v>
       </c>
       <c r="B63" t="s">
@@ -2929,7 +3086,7 @@
         <v>218</v>
       </c>
       <c r="H63" t="str">
-        <f>_xlfn.CONCAT("[Site](",K63,")")</f>
+        <f t="shared" si="3"/>
         <v>[Site](http://www.rdio.com/)</v>
       </c>
       <c r="I63" t="s">
@@ -2944,7 +3101,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="str">
-        <f>_xlfn.CONCAT("[",J64,"](",$D$1,I64,")")</f>
+        <f t="shared" si="2"/>
         <v>[Rocket Music Player](https://play.google.com/store/apps/details?id=com.jrtstudio.AnotherMusicPlayer)</v>
       </c>
       <c r="B64" t="s">
@@ -2960,7 +3117,7 @@
         <v>218</v>
       </c>
       <c r="H64" t="str">
-        <f>_xlfn.CONCAT("[Site](",K64,")")</f>
+        <f t="shared" si="3"/>
         <v>[Site](http://www.jrtstudio.com/)</v>
       </c>
       <c r="I64" t="s">
@@ -2975,7 +3132,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="str">
-        <f>_xlfn.CONCAT("[",J65,"](",$D$1,I65,")")</f>
+        <f t="shared" si="2"/>
         <v>[Samsung Music](https://play.google.com/store/apps/details?id=com.sec.android.app.music)</v>
       </c>
       <c r="B65" t="s">
@@ -2991,7 +3148,7 @@
         <v>218</v>
       </c>
       <c r="H65" t="str">
-        <f>_xlfn.CONCAT("[Site](",K65,")")</f>
+        <f t="shared" si="3"/>
         <v>[Site](https://www.samsung.com/us/support/owners/app/samsung-music)</v>
       </c>
       <c r="I65" t="s">
@@ -3006,7 +3163,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="str">
-        <f>_xlfn.CONCAT("[",J66,"](",$D$1,I66,")")</f>
+        <f t="shared" si="2"/>
         <v>[ServeStream](https://play.google.com/store/apps/details?id=net.sourceforge.servestream)</v>
       </c>
       <c r="B66" t="s">
@@ -3022,7 +3179,7 @@
         <v>218</v>
       </c>
       <c r="H66" t="str">
-        <f>_xlfn.CONCAT("[Site](",K66,")")</f>
+        <f t="shared" si="3"/>
         <v>[Site](http://sourceforge.net/projects/servestream/)</v>
       </c>
       <c r="I66" t="s">
@@ -3037,7 +3194,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="str">
-        <f>_xlfn.CONCAT("[",J67,"](",$D$1,I67,")")</f>
+        <f t="shared" si="2"/>
         <v>[Shuttle](https://play.google.com/store/apps/details?id=another.music.player)</v>
       </c>
       <c r="B67" t="s">
@@ -3053,7 +3210,7 @@
         <v>327</v>
       </c>
       <c r="H67" t="str">
-        <f>_xlfn.CONCAT("[Site](",K67,")")</f>
+        <f t="shared" si="3"/>
         <v>[Site](https://www.shuttlemusicplayer.com)</v>
       </c>
       <c r="I67" t="s">
@@ -3068,7 +3225,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="str">
-        <f>_xlfn.CONCAT("[",J68,"](",$D$1,I68,")")</f>
+        <f t="shared" si="2"/>
         <v>[SmartVanilla Music](https://play.google.com/store/apps/details?id=su.thinkdifferent.vanilla)</v>
       </c>
       <c r="B68" t="s">
@@ -3084,7 +3241,7 @@
         <v>218</v>
       </c>
       <c r="H68" t="str">
-        <f>_xlfn.CONCAT("[Site](",K68,")")</f>
+        <f t="shared" si="3"/>
         <v>[Site](https://github.com/gordon01/vanilla)</v>
       </c>
       <c r="I68" t="s">
@@ -3099,7 +3256,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="str">
-        <f>_xlfn.CONCAT("[",J69,"](",$D$1,I69,")")</f>
+        <f t="shared" si="2"/>
         <v>[Sony Music](https://play.google.com/store/apps/details?id=com.sonyericsson.music)</v>
       </c>
       <c r="B69" t="s">
@@ -3115,7 +3272,7 @@
         <v>218</v>
       </c>
       <c r="H69" t="str">
-        <f>_xlfn.CONCAT("[Site](",K69,")")</f>
+        <f t="shared" si="3"/>
         <v>[Site](https://www.sony.ca/en/electronics/sony-music-center-app)</v>
       </c>
       <c r="I69" t="s">
@@ -3130,7 +3287,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="str">
-        <f>_xlfn.CONCAT("[",J70,"](",$D$1,I70,")")</f>
+        <f t="shared" si="2"/>
         <v>[SoundCloud](https://play.google.com/store/apps/details?id=com.soundcloud.android)</v>
       </c>
       <c r="B70" t="s">
@@ -3149,7 +3306,7 @@
         <v>35</v>
       </c>
       <c r="H70" t="str">
-        <f>_xlfn.CONCAT("[Site](",K70,")")</f>
+        <f t="shared" si="3"/>
         <v>[Site](#)</v>
       </c>
       <c r="I70" t="s">
@@ -3164,7 +3321,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="str">
-        <f>_xlfn.CONCAT("[",J71,"](",$D$1,I71,")")</f>
+        <f t="shared" si="2"/>
         <v>[SoundSeeder](https://play.google.com/store/apps/details?id=com.kattwinkel.android.soundseeder.player)</v>
       </c>
       <c r="B71" t="s">
@@ -3180,7 +3337,7 @@
         <v>218</v>
       </c>
       <c r="H71" t="str">
-        <f>_xlfn.CONCAT("[Site](",K71,")")</f>
+        <f t="shared" si="3"/>
         <v>[Site](#)</v>
       </c>
       <c r="I71" t="s">
@@ -3195,7 +3352,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="str">
-        <f>_xlfn.CONCAT("[",J72,"](",$D$1,I72,")")</f>
+        <f t="shared" si="2"/>
         <v>[Spotify](https://play.google.com/store/apps/details?id=com.spotify.music)</v>
       </c>
       <c r="B72" t="s">
@@ -3211,7 +3368,7 @@
         <v>218</v>
       </c>
       <c r="H72" t="str">
-        <f>_xlfn.CONCAT("[Site](",K72,")")</f>
+        <f t="shared" si="3"/>
         <v>[Site](https://spotify.com)</v>
       </c>
       <c r="I72" t="s">
@@ -3226,7 +3383,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="str">
-        <f>_xlfn.CONCAT("[",J73,"](",$D$1,I73,")")</f>
+        <f t="shared" si="2"/>
         <v>[Squeezer](https://play.google.com/store/apps/details?id=uk.org.ngo.squeezer)</v>
       </c>
       <c r="B73" t="s">
@@ -3242,7 +3399,7 @@
         <v>218</v>
       </c>
       <c r="H73" t="str">
-        <f>_xlfn.CONCAT("[Site](",K73,")")</f>
+        <f t="shared" si="3"/>
         <v>[Site](#)</v>
       </c>
       <c r="I73" t="s">
@@ -3257,7 +3414,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="str">
-        <f>_xlfn.CONCAT("[",J74,"](",$D$1,I74,")")</f>
+        <f t="shared" si="2"/>
         <v>[Subsonic](https://play.google.com/store/apps/details?id=net.sourceforge.subsonic.androidapp)</v>
       </c>
       <c r="B74" t="s">
@@ -3273,7 +3430,7 @@
         <v>218</v>
       </c>
       <c r="H74" t="str">
-        <f>_xlfn.CONCAT("[Site](",K74,")")</f>
+        <f t="shared" si="3"/>
         <v>[Site](https://github.com/daneren2005/Subsonic)</v>
       </c>
       <c r="I74" t="s">
@@ -3288,7 +3445,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="str">
-        <f>_xlfn.CONCAT("[",J75,"](",$D$1,I75,")")</f>
+        <f t="shared" si="2"/>
         <v>[TIDAL](https://play.google.com/store/apps/details?id=com.aspiro.tidal)</v>
       </c>
       <c r="B75" t="s">
@@ -3304,7 +3461,7 @@
         <v>218</v>
       </c>
       <c r="H75" t="str">
-        <f>_xlfn.CONCAT("[Site](",K75,")")</f>
+        <f t="shared" si="3"/>
         <v>[Site](#)</v>
       </c>
       <c r="I75" t="s">
@@ -3319,7 +3476,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="str">
-        <f>_xlfn.CONCAT("[",J76,"](",$D$1,I76,")")</f>
+        <f t="shared" si="2"/>
         <v>[Timber](https://play.google.com/store/apps/details?id=naman14.timber)</v>
       </c>
       <c r="B76" t="s">
@@ -3335,7 +3492,7 @@
         <v>218</v>
       </c>
       <c r="H76" t="str">
-        <f>_xlfn.CONCAT("[Site](",K76,")")</f>
+        <f t="shared" si="3"/>
         <v>[Site](#)</v>
       </c>
       <c r="I76" t="s">
@@ -3350,7 +3507,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="str">
-        <f>_xlfn.CONCAT("[",J77,"](",$D$1,I77,")")</f>
+        <f t="shared" si="2"/>
         <v>[Vanilla Music](https://play.google.com/store/apps/details?id=ch.blinkenlights.android.vanilla)</v>
       </c>
       <c r="B77" t="s">
@@ -3366,7 +3523,7 @@
         <v>218</v>
       </c>
       <c r="H77" t="str">
-        <f>_xlfn.CONCAT("[Site](",K77,")")</f>
+        <f t="shared" si="3"/>
         <v>[Site](https://github.com/vanilla-music/vanilla)</v>
       </c>
       <c r="I77" t="s">
@@ -3381,7 +3538,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="str">
-        <f>_xlfn.CONCAT("[",J78,"](",$D$1,I78,")")</f>
+        <f t="shared" si="2"/>
         <v>[VLC](https://play.google.com/store/apps/details?id=org.videolan.vlc.debug)</v>
       </c>
       <c r="B78" t="s">
@@ -3400,7 +3557,7 @@
         <v>85</v>
       </c>
       <c r="H78" t="str">
-        <f>_xlfn.CONCAT("[Site](",K78,")")</f>
+        <f t="shared" si="3"/>
         <v>[Site](https://www.videolan.org/vlc/download-android.html)</v>
       </c>
       <c r="I78" t="s">
@@ -3415,7 +3572,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="str">
-        <f>_xlfn.CONCAT("[",J79,"](",$D$1,I79,")")</f>
+        <f t="shared" si="2"/>
         <v>[WiMP](https://play.google.com/store/apps/details?id=com.aspiro.wamp)</v>
       </c>
       <c r="B79" t="s">
@@ -3431,7 +3588,7 @@
         <v>218</v>
       </c>
       <c r="H79" t="str">
-        <f>_xlfn.CONCAT("[Site](",K79,")")</f>
+        <f t="shared" si="3"/>
         <v>[Site](http://wimp.no/)</v>
       </c>
       <c r="I79" t="s">
@@ -3446,7 +3603,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="str">
-        <f>_xlfn.CONCAT("[",J80,"](",$D$1,I80,")")</f>
+        <f t="shared" si="2"/>
         <v>[Winamp](https://play.google.com/store/apps/details?id=com.nullsoft.winamp)</v>
       </c>
       <c r="B80" t="s">
@@ -3462,7 +3619,7 @@
         <v>218</v>
       </c>
       <c r="H80" t="str">
-        <f>_xlfn.CONCAT("[Site](",K80,")")</f>
+        <f t="shared" si="3"/>
         <v>[Site](#)</v>
       </c>
       <c r="I80" t="s">
@@ -3477,7 +3634,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="str">
-        <f>_xlfn.CONCAT("[",J81,"](",$D$1,I81,")")</f>
+        <f t="shared" si="2"/>
         <v>[XenoAmp](https://play.google.com/store/apps/details?id=pl.qus.xenoamp)</v>
       </c>
       <c r="B81" t="s">
@@ -3493,7 +3650,7 @@
         <v>218</v>
       </c>
       <c r="H81" t="str">
-        <f>_xlfn.CONCAT("[Site](",K81,")")</f>
+        <f t="shared" si="3"/>
         <v>[Site](#)</v>
       </c>
       <c r="I81" t="s">
@@ -3518,6 +3675,413 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC130FFE-F73B-4B8F-90FC-599BBB810AE4}">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="52" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F2" t="s">
+        <v>328</v>
+      </c>
+      <c r="G2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H2" t="s">
+        <v>328</v>
+      </c>
+      <c r="I2" t="s">
+        <v>328</v>
+      </c>
+      <c r="J2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D3" t="s">
+        <v>331</v>
+      </c>
+      <c r="E3" t="s">
+        <v>331</v>
+      </c>
+      <c r="F3" t="s">
+        <v>331</v>
+      </c>
+      <c r="G3" t="s">
+        <v>331</v>
+      </c>
+      <c r="H3" t="s">
+        <v>331</v>
+      </c>
+      <c r="I3" t="s">
+        <v>331</v>
+      </c>
+      <c r="J3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C4" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4" t="s">
+        <v>348</v>
+      </c>
+      <c r="E4" t="s">
+        <v>348</v>
+      </c>
+      <c r="F4" t="s">
+        <v>348</v>
+      </c>
+      <c r="G4" t="s">
+        <v>349</v>
+      </c>
+      <c r="H4" t="s">
+        <v>337</v>
+      </c>
+      <c r="I4" t="s">
+        <v>348</v>
+      </c>
+      <c r="J4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C5" t="s">
+        <v>371</v>
+      </c>
+      <c r="D5" t="s">
+        <v>341</v>
+      </c>
+      <c r="E5" t="s">
+        <v>335</v>
+      </c>
+      <c r="F5" t="s">
+        <v>343</v>
+      </c>
+      <c r="G5" t="s">
+        <v>356</v>
+      </c>
+      <c r="H5" t="s">
+        <v>362</v>
+      </c>
+      <c r="I5" t="s">
+        <v>341</v>
+      </c>
+      <c r="J5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>368</v>
+      </c>
+      <c r="C6" t="s">
+        <v>371</v>
+      </c>
+      <c r="D6" t="s">
+        <v>364</v>
+      </c>
+      <c r="E6" t="s">
+        <v>368</v>
+      </c>
+      <c r="F6" t="s">
+        <v>341</v>
+      </c>
+      <c r="G6" t="s">
+        <v>354</v>
+      </c>
+      <c r="H6" t="s">
+        <v>361</v>
+      </c>
+      <c r="I6" t="s">
+        <v>364</v>
+      </c>
+      <c r="J6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>330</v>
+      </c>
+      <c r="C7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D7" t="s">
+        <v>365</v>
+      </c>
+      <c r="E7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G7" t="s">
+        <v>352</v>
+      </c>
+      <c r="H7" t="s">
+        <v>335</v>
+      </c>
+      <c r="I7" t="s">
+        <v>330</v>
+      </c>
+      <c r="J7" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>379</v>
+      </c>
+      <c r="C8" t="s">
+        <v>335</v>
+      </c>
+      <c r="D8" t="s">
+        <v>330</v>
+      </c>
+      <c r="E8" t="s">
+        <v>330</v>
+      </c>
+      <c r="F8" t="s">
+        <v>345</v>
+      </c>
+      <c r="G8" t="s">
+        <v>355</v>
+      </c>
+      <c r="H8" t="s">
+        <v>359</v>
+      </c>
+      <c r="J8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>378</v>
+      </c>
+      <c r="C9" t="s">
+        <v>373</v>
+      </c>
+      <c r="D9" t="s">
+        <v>366</v>
+      </c>
+      <c r="E9" t="s">
+        <v>367</v>
+      </c>
+      <c r="F9" t="s">
+        <v>342</v>
+      </c>
+      <c r="G9" t="s">
+        <v>351</v>
+      </c>
+      <c r="H9" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>338</v>
+      </c>
+      <c r="C10" t="s">
+        <v>370</v>
+      </c>
+      <c r="D10" t="s">
+        <v>346</v>
+      </c>
+      <c r="E10" t="s">
+        <v>334</v>
+      </c>
+      <c r="F10" t="s">
+        <v>344</v>
+      </c>
+      <c r="G10" t="s">
+        <v>350</v>
+      </c>
+      <c r="H10" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>364</v>
+      </c>
+      <c r="E11" t="s">
+        <v>338</v>
+      </c>
+      <c r="F11" t="s">
+        <v>330</v>
+      </c>
+      <c r="G11" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>374</v>
+      </c>
+      <c r="F12" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>376</v>
+      </c>
+      <c r="F13" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>330</v>
+      </c>
+      <c r="F14" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>372</v>
+      </c>
+      <c r="F15" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>331</v>
+      </c>
+      <c r="B18" t="s">
+        <v>331</v>
+      </c>
+      <c r="C18" t="s">
+        <v>331</v>
+      </c>
+      <c r="D18" t="s">
+        <v>331</v>
+      </c>
+      <c r="E18" t="s">
+        <v>332</v>
+      </c>
+      <c r="F18" t="s">
+        <v>332</v>
+      </c>
+      <c r="G18" t="s">
+        <v>332</v>
+      </c>
+      <c r="H18" t="s">
+        <v>332</v>
+      </c>
+      <c r="I18" t="s">
+        <v>332</v>
+      </c>
+      <c r="J18" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>333</v>
+      </c>
+      <c r="B19" t="s">
+        <v>333</v>
+      </c>
+      <c r="C19" t="s">
+        <v>333</v>
+      </c>
+      <c r="D19" t="s">
+        <v>333</v>
+      </c>
+      <c r="E19" t="s">
+        <v>333</v>
+      </c>
+      <c r="F19" t="s">
+        <v>333</v>
+      </c>
+      <c r="G19" t="s">
+        <v>357</v>
+      </c>
+      <c r="H19" t="s">
+        <v>357</v>
+      </c>
+      <c r="I19" t="s">
+        <v>357</v>
+      </c>
+      <c r="J19" t="s">
+        <v>357</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J4:J8">
+    <sortCondition ref="J4"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFA01DF3-D071-49B9-86B7-527A5C68CCB3}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3529,7 +4093,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2227A211-2F7D-48C3-A8FB-8EB944126BDA}">
   <dimension ref="A2:L42"/>
   <sheetViews>

--- a/music_app_table.csv.xlsx
+++ b/music_app_table.csv.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\$Git_gitea_github\sls_\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\$Git_gitea_github\sls_desktop_tower\sls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="256" documentId="13_ncr:1_{5BCCD4BA-3AD8-4B80-B444-D18182167C7D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{E897C5D8-FD93-4873-B331-1F60FC26B023}"/>
+  <xr:revisionPtr revIDLastSave="257" documentId="13_ncr:1_{5BCCD4BA-3AD8-4B80-B444-D18182167C7D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{67445562-D97C-49AB-B467-D496ED260B2B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{EE568BB3-1B64-4639-9B0F-0BD6D1CD9903}"/>
+    <workbookView xWindow="30612" yWindow="-132" windowWidth="30936" windowHeight="16896" xr2:uid="{EE568BB3-1B64-4639-9B0F-0BD6D1CD9903}"/>
   </bookViews>
   <sheets>
     <sheet name="music_app_table" sheetId="1" r:id="rId1"/>
@@ -1544,23 +1544,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D624701D-6C10-4902-9AB9-D688402684BD}">
   <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="37.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="37.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.21875" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" customWidth="1"/>
-    <col min="3" max="3" width="6.88671875" customWidth="1"/>
-    <col min="4" max="4" width="24.21875" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" customWidth="1"/>
-    <col min="7" max="8" width="12.77734375" customWidth="1"/>
-    <col min="9" max="9" width="14.21875" customWidth="1"/>
-    <col min="10" max="11" width="30.21875" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="21" customWidth="1"/>
+    <col min="10" max="11" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>323</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>128</v>
       </c>
@@ -1580,7 +1580,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>120</v>
       </c>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>121</v>
       </c>
@@ -1604,7 +1604,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>132</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>123</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>134</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>124</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>125</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>136</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>128</v>
       </c>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>127</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>126</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>315</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>129</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>141</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>319</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
         <v>0</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>318</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" ref="A22:A53" si="0">_xlfn.CONCAT("[",J22,"](",$D$1,I22,")")</f>
         <v>[8tracks](https://play.google.com/store/apps/details?id=com.e8tracks)</v>
@@ -1819,7 +1819,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>[AIMP](https://play.google.com/store/apps/details?id=com.aimp.player)</v>
@@ -1850,7 +1850,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>[Amazon Music](https://play.google.com/store/apps/details?id=com.amazon.mp3)</v>
@@ -1881,7 +1881,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>[Apollo](https://play.google.com/store/apps/details?id=com.andrew.apollo)</v>
@@ -1912,7 +1912,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>[Archos](https://play.google.com/store/apps/details?id=https://play.google.com/store/apps/details?id=com.archos.mediacenter.music)</v>
@@ -1943,7 +1943,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>[BlackPlayer](https://play.google.com/store/apps/details?id=com.kodarkooperativet.blackplayerfree)</v>
@@ -1974,7 +1974,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>[BuMP](https://play.google.com/store/apps/details?id=com.n7mobile.micromusic)</v>
@@ -2008,7 +2008,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>[Clean Music](https://play.google.com/store/apps/details?id=com.myskyspark.music)</v>
@@ -2039,7 +2039,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>[DAAP](https://play.google.com/store/apps/details?id=org.mult.daap)</v>
@@ -2070,7 +2070,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>[DeaDBeeF](https://play.google.com/store/apps/details?id=org.deadbeef.android)</v>
@@ -2101,7 +2101,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>[Deezer](https://play.google.com/store/apps/details?id=deezer.android.app)</v>
@@ -2132,7 +2132,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>[doubleTwist](https://play.google.com/store/apps/details?id=com.doubleTwist.androidPlayer)</v>
@@ -2166,7 +2166,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>[Dsub](https://play.google.com/store/apps/details?id=github.daneren2005.dsub)</v>
@@ -2197,7 +2197,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>[Folder Player](https://play.google.com/store/apps/details?id=com.folderplayer)</v>
@@ -2228,7 +2228,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>[foobar2000](https://play.google.com/store/apps/details?id=com.foobar2000.foobar2000)</v>
@@ -2259,7 +2259,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>[GoneMAD Music Player](https://play.google.com/store/apps/details?id=gonemad.gmmp)</v>
@@ -2290,7 +2290,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>[Huawei Music](https://play.google.com/store/apps/details?id=com.android.mediacenter)</v>
@@ -2321,7 +2321,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>[InfiniTracks](https://play.google.com/store/apps/details?id=com.smithyproductions.infinitracks)</v>
@@ -2352,7 +2352,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>[jetAudio](https://play.google.com/store/apps/details?id=com.jetappfactory.jetaudio)</v>
@@ -2383,7 +2383,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>[JoeApollo](https://play.google.com/store/apps/details?id=the.joeapollo)</v>
@@ -2414,7 +2414,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>[Kodi Remote](https://play.google.com/store/apps/details?id=ch.berard.xbmcremotebeta)</v>
@@ -2445,7 +2445,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>[MediaMonkey](https://play.google.com/store/apps/details?id=com.ventismedia.android.mediamonkey)</v>
@@ -2476,7 +2476,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>[Meridian Player](https://play.google.com/store/apps/details?id=org.iii.romulus.meridian)</v>
@@ -2507,7 +2507,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>[MixZing](https://play.google.com/store/apps/details?id=com.mixzing.basic)</v>
@@ -2538,7 +2538,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>[MortPlayer Music](https://play.google.com/store/apps/details?id=de.stohelit.folderplayer)</v>
@@ -2569,7 +2569,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>[Mosaic player](https://play.google.com/store/apps/details?id=com.TFiveR.mosaicplayer)</v>
@@ -2600,7 +2600,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>[Mp3 Music Player](https://play.google.com/store/apps/details?id=us.music.marine)</v>
@@ -2631,7 +2631,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>[Music Canoe](https://play.google.com/store/apps/details?id=com.lasthopesoftware.bluewater)</v>
@@ -2662,7 +2662,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>[Music Folder Player Free](https://play.google.com/store/apps/details?id=de.zorillasoft.musicfolderplayer)</v>
@@ -2693,7 +2693,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>[Music Player by JRTStudio](https://play.google.com/store/apps/details?id=com.jrtstudio.music)</v>
@@ -2724,7 +2724,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>[Musixmatch](https://play.google.com/store/apps/details?id=com.musixmatch.android.lyrify)</v>
@@ -2755,7 +2755,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>[My Cloud Player](https://play.google.com/store/apps/details?id=com.mycloudplayers.mycloudplayer)</v>
@@ -2786,7 +2786,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f t="shared" ref="A54:A81" si="2">_xlfn.CONCAT("[",J54,"](",$D$1,I54,")")</f>
         <v>[n7player](https://play.google.com/store/apps/details?id=com.n7mobile.nplayer)</v>
@@ -2817,7 +2817,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f t="shared" si="2"/>
         <v>[Napster](https://play.google.com/store/apps/details?id=com.rhapsody)</v>
@@ -2848,7 +2848,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f t="shared" si="2"/>
         <v>[Neutron (Eval)](https://play.google.com/store/apps/details?id=com.neutroncode.mpeval)</v>
@@ -2879,7 +2879,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f t="shared" si="2"/>
         <v>[Noise FM](https://play.google.com/store/apps/details?id=ru.modi.dubsteponline)</v>
@@ -2910,7 +2910,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f t="shared" si="2"/>
         <v>[Phonograph](https://play.google.com/store/apps/details?id=com.kabouzeid.gramophone)</v>
@@ -2941,7 +2941,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f t="shared" si="2"/>
         <v>[Play Music](https://play.google.com/store/apps/details?id=com.google.android.music)</v>
@@ -2972,7 +2972,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f t="shared" si="2"/>
         <v>[PlayerPro](https://play.google.com/store/apps/details?id=com.tbig.playerprotrial)</v>
@@ -3003,7 +3003,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f t="shared" si="2"/>
         <v>[Poweramp](https://play.google.com/store/apps/details?id=com.maxmpz.audioplayer)</v>
@@ -3037,7 +3037,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f t="shared" si="2"/>
         <v>[Pulsar](https://play.google.com/store/apps/details?id=com.rhmsoft.pulsar)</v>
@@ -3068,7 +3068,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f t="shared" si="2"/>
         <v>[Rdio](https://play.google.com/store/apps/details?id=com.rdio.android.ui)</v>
@@ -3099,7 +3099,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f t="shared" si="2"/>
         <v>[Rocket Music Player](https://play.google.com/store/apps/details?id=com.jrtstudio.AnotherMusicPlayer)</v>
@@ -3130,7 +3130,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f t="shared" si="2"/>
         <v>[Samsung Music](https://play.google.com/store/apps/details?id=com.sec.android.app.music)</v>
@@ -3161,7 +3161,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f t="shared" si="2"/>
         <v>[ServeStream](https://play.google.com/store/apps/details?id=net.sourceforge.servestream)</v>
@@ -3192,7 +3192,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f t="shared" si="2"/>
         <v>[Shuttle](https://play.google.com/store/apps/details?id=another.music.player)</v>
@@ -3223,7 +3223,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f t="shared" si="2"/>
         <v>[SmartVanilla Music](https://play.google.com/store/apps/details?id=su.thinkdifferent.vanilla)</v>
@@ -3254,7 +3254,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f t="shared" si="2"/>
         <v>[Sony Music](https://play.google.com/store/apps/details?id=com.sonyericsson.music)</v>
@@ -3285,7 +3285,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f t="shared" si="2"/>
         <v>[SoundCloud](https://play.google.com/store/apps/details?id=com.soundcloud.android)</v>
@@ -3319,7 +3319,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f t="shared" si="2"/>
         <v>[SoundSeeder](https://play.google.com/store/apps/details?id=com.kattwinkel.android.soundseeder.player)</v>
@@ -3350,7 +3350,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f t="shared" si="2"/>
         <v>[Spotify](https://play.google.com/store/apps/details?id=com.spotify.music)</v>
@@ -3381,7 +3381,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f t="shared" si="2"/>
         <v>[Squeezer](https://play.google.com/store/apps/details?id=uk.org.ngo.squeezer)</v>
@@ -3412,7 +3412,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f t="shared" si="2"/>
         <v>[Subsonic](https://play.google.com/store/apps/details?id=net.sourceforge.subsonic.androidapp)</v>
@@ -3443,7 +3443,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f t="shared" si="2"/>
         <v>[TIDAL](https://play.google.com/store/apps/details?id=com.aspiro.tidal)</v>
@@ -3474,7 +3474,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <f t="shared" si="2"/>
         <v>[Timber](https://play.google.com/store/apps/details?id=naman14.timber)</v>
@@ -3505,7 +3505,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f t="shared" si="2"/>
         <v>[Vanilla Music](https://play.google.com/store/apps/details?id=ch.blinkenlights.android.vanilla)</v>
@@ -3536,7 +3536,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f t="shared" si="2"/>
         <v>[VLC](https://play.google.com/store/apps/details?id=org.videolan.vlc.debug)</v>
@@ -3570,7 +3570,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f t="shared" si="2"/>
         <v>[WiMP](https://play.google.com/store/apps/details?id=com.aspiro.wamp)</v>
@@ -3601,7 +3601,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f t="shared" si="2"/>
         <v>[Winamp](https://play.google.com/store/apps/details?id=com.nullsoft.winamp)</v>
@@ -3632,7 +3632,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f t="shared" si="2"/>
         <v>[XenoAmp](https://play.google.com/store/apps/details?id=pl.qus.xenoamp)</v>
@@ -3678,11 +3678,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC130FFE-F73B-4B8F-90FC-599BBB810AE4}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="52" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="52" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>377</v>
       </c>
@@ -3711,7 +3711,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>328</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>331</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>348</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>335</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>368</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>330</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>379</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>378</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>338</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>364</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>374</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>376</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>330</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>372</v>
       </c>
@@ -4003,12 +4003,12 @@
         <v>346</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>331</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>333</v>
       </c>
@@ -4087,7 +4087,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4101,15 +4101,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>221</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>228</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>230</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>233</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>235</v>
       </c>
@@ -4209,7 +4209,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>236</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>238</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>240</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>242</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>244</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>246</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>248</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>250</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>252</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>253</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>254</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>256</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>258</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>260</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>265</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>267</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>269</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>271</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>273</v>
       </c>
@@ -4553,7 +4553,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>277</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>279</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>281</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>283</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>286</v>
       </c>
@@ -4644,7 +4644,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>288</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>290</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>292</v>
       </c>
@@ -4701,7 +4701,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>294</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>297</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>299</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>303</v>
       </c>
@@ -4781,7 +4781,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>304</v>
       </c>
@@ -4792,22 +4792,22 @@
         <v>305</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>309</v>
       </c>
